--- a/data/pca/factorExposure/factorExposure_2016-07-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-07-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +711,76 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.009953623907230116</v>
+        <v>0.01310098131178378</v>
       </c>
       <c r="C2">
-        <v>-0.05562233661882702</v>
+        <v>0.04367165994649704</v>
       </c>
       <c r="D2">
-        <v>-0.03619077692618013</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06173840575267096</v>
+      </c>
+      <c r="E2">
+        <v>-0.06957355405736657</v>
+      </c>
+      <c r="F2">
+        <v>-0.06682824384115572</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>0.05126522311165133</v>
+        <v>0.02892441306015051</v>
       </c>
       <c r="C3">
-        <v>-0.1007309519388564</v>
+        <v>0.07954806832286439</v>
       </c>
       <c r="D3">
-        <v>-0.1055304802488912</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.08814779035323544</v>
+      </c>
+      <c r="E3">
+        <v>-0.0716601500518298</v>
+      </c>
+      <c r="F3">
+        <v>0.005963510375520301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.06493394031983768</v>
+        <v>0.05778217049126733</v>
       </c>
       <c r="C4">
-        <v>-0.06094848449568858</v>
+        <v>0.06671488425126175</v>
       </c>
       <c r="D4">
-        <v>-0.03018315594883448</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.05896758113435542</v>
+      </c>
+      <c r="E4">
+        <v>-0.0711831286739857</v>
+      </c>
+      <c r="F4">
+        <v>-0.07677788203427297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.03944635807727804</v>
+        <v>0.03555334514502442</v>
       </c>
       <c r="C6">
-        <v>-0.03986555366511196</v>
+        <v>0.0322547259318518</v>
       </c>
       <c r="D6">
-        <v>-0.03481608749108379</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.0639058947477377</v>
+      </c>
+      <c r="E6">
+        <v>-0.07346775371341314</v>
+      </c>
+      <c r="F6">
+        <v>-0.05736010160542138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.02155904711984419</v>
+        <v>0.01850716405336109</v>
       </c>
       <c r="C7">
-        <v>-0.0445055624322467</v>
+        <v>0.03870450414149256</v>
       </c>
       <c r="D7">
-        <v>0.004125601730009557</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03694609040911109</v>
+      </c>
+      <c r="E7">
+        <v>-0.04804813885168521</v>
+      </c>
+      <c r="F7">
+        <v>-0.09923862449603414</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.002624463605742385</v>
+        <v>0.003238882874769007</v>
       </c>
       <c r="C8">
-        <v>-0.0279080050160235</v>
+        <v>0.02905102217662441</v>
       </c>
       <c r="D8">
-        <v>-0.03019841712007967</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03102253000757341</v>
+      </c>
+      <c r="E8">
+        <v>-0.05071219466871447</v>
+      </c>
+      <c r="F8">
+        <v>-0.03714731119010376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.03474396328171287</v>
+        <v>0.03644170490729071</v>
       </c>
       <c r="C9">
-        <v>-0.04622211913100119</v>
+        <v>0.05292468391024904</v>
       </c>
       <c r="D9">
-        <v>-0.01670592378841931</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.0422602070867669</v>
+      </c>
+      <c r="E9">
+        <v>-0.05708402677143866</v>
+      </c>
+      <c r="F9">
+        <v>-0.08401723262253788</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.07344107345592304</v>
+        <v>0.09981154855673834</v>
       </c>
       <c r="C10">
-        <v>0.196629826898506</v>
+        <v>-0.1963651418867941</v>
       </c>
       <c r="D10">
-        <v>0.00433845235547946</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.005791175118279634</v>
+      </c>
+      <c r="E10">
+        <v>-0.04359356049894791</v>
+      </c>
+      <c r="F10">
+        <v>-0.04004699287071112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.04087185855699539</v>
+        <v>0.0363331812291259</v>
       </c>
       <c r="C11">
-        <v>-0.0552987853302546</v>
+        <v>0.05139673412408523</v>
       </c>
       <c r="D11">
-        <v>-0.01418209649944677</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03373258494746838</v>
+      </c>
+      <c r="E11">
+        <v>-0.01648967558004529</v>
+      </c>
+      <c r="F11">
+        <v>-0.06513521421235945</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.04073029937224332</v>
+        <v>0.03710028135872463</v>
       </c>
       <c r="C12">
-        <v>-0.0490138713567108</v>
+        <v>0.04728725695122445</v>
       </c>
       <c r="D12">
-        <v>-0.00276191211815182</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02528668448805728</v>
+      </c>
+      <c r="E12">
+        <v>-0.02365410059106844</v>
+      </c>
+      <c r="F12">
+        <v>-0.06656358255777749</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.01490870761727242</v>
+        <v>0.01206633886620164</v>
       </c>
       <c r="C13">
-        <v>-0.05650124465221261</v>
+        <v>0.04685674042035139</v>
       </c>
       <c r="D13">
-        <v>-0.01897622386712522</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05683610327131352</v>
+      </c>
+      <c r="E13">
+        <v>-0.08312661412679379</v>
+      </c>
+      <c r="F13">
+        <v>-0.09631147103402353</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.006833414338760439</v>
+        <v>0.004604453648809546</v>
       </c>
       <c r="C14">
-        <v>-0.03785750410947328</v>
+        <v>0.03329309397001946</v>
       </c>
       <c r="D14">
-        <v>0.01387812353147906</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02485393143728273</v>
+      </c>
+      <c r="E14">
+        <v>-0.0370718661160447</v>
+      </c>
+      <c r="F14">
+        <v>-0.0945628438873633</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0006450939180344068</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.005659351893580025</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.005960804465070343</v>
+      </c>
+      <c r="E15">
+        <v>-0.001620610527999396</v>
+      </c>
+      <c r="F15">
+        <v>-0.00343899570562054</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.0373970678788333</v>
+        <v>0.03388993788422976</v>
       </c>
       <c r="C16">
-        <v>-0.04724976607866926</v>
+        <v>0.04531168731667017</v>
       </c>
       <c r="D16">
-        <v>-0.009212045415505717</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02729162860324602</v>
+      </c>
+      <c r="E16">
+        <v>-0.03087130621694734</v>
+      </c>
+      <c r="F16">
+        <v>-0.06761132105315447</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1031,16 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1051,176 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>0.02295629119801179</v>
+        <v>0.01623333697409303</v>
       </c>
       <c r="C19">
-        <v>-0.06629845900323929</v>
+        <v>0.05084887426566961</v>
       </c>
       <c r="D19">
-        <v>-0.07892251019608948</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.08943300588401236</v>
+      </c>
+      <c r="E19">
+        <v>-0.1004536152185462</v>
+      </c>
+      <c r="F19">
+        <v>-0.07468488481767623</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.0167455240258873</v>
+        <v>0.01360817344443817</v>
       </c>
       <c r="C20">
-        <v>-0.04640676466259703</v>
+        <v>0.04125726462707429</v>
       </c>
       <c r="D20">
-        <v>-0.0190400245062635</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03724204681299979</v>
+      </c>
+      <c r="E20">
+        <v>-0.06714875476141072</v>
+      </c>
+      <c r="F20">
+        <v>-0.07827751430647539</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.01108228443029478</v>
+        <v>0.009078410619061872</v>
       </c>
       <c r="C21">
-        <v>-0.05163769324662226</v>
+        <v>0.0462053576769057</v>
       </c>
       <c r="D21">
-        <v>-0.03983162080370328</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.06611481939045882</v>
+      </c>
+      <c r="E21">
+        <v>-0.09753862602324555</v>
+      </c>
+      <c r="F21">
+        <v>-0.1220359505863616</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.002079203306268715</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.02412738983372766</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.03625341430178368</v>
+      </c>
+      <c r="E22">
+        <v>-0.02872598644374825</v>
+      </c>
+      <c r="F22">
+        <v>-0.0146083294421948</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.002148946285265581</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.02427142537337445</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.03591630297351375</v>
+      </c>
+      <c r="E23">
+        <v>-0.02899696829213508</v>
+      </c>
+      <c r="F23">
+        <v>-0.01440712221977436</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.03307160324575178</v>
+        <v>0.03353367511943454</v>
       </c>
       <c r="C24">
-        <v>-0.05161698202982908</v>
+        <v>0.0536937240650321</v>
       </c>
       <c r="D24">
-        <v>-0.007459318747616251</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02614045126054492</v>
+      </c>
+      <c r="E24">
+        <v>-0.02762344352369136</v>
+      </c>
+      <c r="F24">
+        <v>-0.07619210301484322</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.04702212876406916</v>
+        <v>0.04379199041937036</v>
       </c>
       <c r="C25">
-        <v>-0.06181453004348123</v>
+        <v>0.05726142251665822</v>
       </c>
       <c r="D25">
-        <v>0.001298524590126773</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02435501545144335</v>
+      </c>
+      <c r="E25">
+        <v>-0.02243866910894047</v>
+      </c>
+      <c r="F25">
+        <v>-0.07779027487357518</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.01611243591007968</v>
+        <v>0.01391068261639958</v>
       </c>
       <c r="C26">
-        <v>-0.01609547867662535</v>
+        <v>0.01748978822898693</v>
       </c>
       <c r="D26">
-        <v>0.00171806984823668</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.0243419225659104</v>
+      </c>
+      <c r="E26">
+        <v>-0.03921502918812784</v>
+      </c>
+      <c r="F26">
+        <v>-0.0675696007466262</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1231,156 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.08605708941111775</v>
+        <v>0.1346082609015601</v>
       </c>
       <c r="C28">
-        <v>0.2339818798702316</v>
+        <v>-0.2464057795545591</v>
       </c>
       <c r="D28">
-        <v>0.005365235132107064</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.0210543286027267</v>
+      </c>
+      <c r="E28">
+        <v>-0.05064033729965419</v>
+      </c>
+      <c r="F28">
+        <v>-0.0592621665824584</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.008574143867066109</v>
+        <v>0.005647590985608315</v>
       </c>
       <c r="C29">
-        <v>-0.03118866039383155</v>
+        <v>0.02903616876146248</v>
       </c>
       <c r="D29">
-        <v>0.01990745190944473</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01821636630711355</v>
+      </c>
+      <c r="E29">
+        <v>-0.03727067169046363</v>
+      </c>
+      <c r="F29">
+        <v>-0.08759086391147694</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.04967624393837728</v>
+        <v>0.04230769130646112</v>
       </c>
       <c r="C30">
-        <v>-0.06294616608038631</v>
+        <v>0.06496016867296991</v>
       </c>
       <c r="D30">
-        <v>-0.07703973034405581</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1089096144113644</v>
+      </c>
+      <c r="E30">
+        <v>-0.06173117391077682</v>
+      </c>
+      <c r="F30">
+        <v>-0.08909539091037251</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.05429442619207223</v>
+        <v>0.05473407799555164</v>
       </c>
       <c r="C31">
-        <v>-0.03570703524000161</v>
+        <v>0.05570486678594955</v>
       </c>
       <c r="D31">
-        <v>0.02898002465165788</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.0132073822012878</v>
+      </c>
+      <c r="E31">
+        <v>-0.0610991707131574</v>
+      </c>
+      <c r="F31">
+        <v>-0.07256342422021525</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.002771030983606693</v>
+        <v>0.004843458923243768</v>
       </c>
       <c r="C32">
-        <v>-0.0443851247377633</v>
+        <v>0.03489110488329536</v>
       </c>
       <c r="D32">
-        <v>-0.04013854951623535</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05090121206245853</v>
+      </c>
+      <c r="E32">
+        <v>-0.03970958491622957</v>
+      </c>
+      <c r="F32">
+        <v>-0.06361108969180265</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.02751184439619864</v>
+        <v>0.02457589521127371</v>
       </c>
       <c r="C33">
-        <v>-0.06239851533063751</v>
+        <v>0.05517196528932572</v>
       </c>
       <c r="D33">
-        <v>-0.04452453579577526</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.07739928417418009</v>
+      </c>
+      <c r="E33">
+        <v>-0.07200801555583401</v>
+      </c>
+      <c r="F33">
+        <v>-0.1190234622906006</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.04482018874014071</v>
+        <v>0.04094809291327687</v>
       </c>
       <c r="C34">
-        <v>-0.06694282206419822</v>
+        <v>0.06434404341984029</v>
       </c>
       <c r="D34">
-        <v>-0.009703931688433448</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03358475291945212</v>
+      </c>
+      <c r="E34">
+        <v>-0.002178700601440908</v>
+      </c>
+      <c r="F34">
+        <v>-0.07807994526690716</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1391,36 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.01303519348147344</v>
+        <v>0.01303496266868007</v>
       </c>
       <c r="C36">
-        <v>-0.0172985375947283</v>
+        <v>0.01295546927461147</v>
       </c>
       <c r="D36">
-        <v>0.002416418109417435</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02582029313122872</v>
+      </c>
+      <c r="E36">
+        <v>-0.04651041759240265</v>
+      </c>
+      <c r="F36">
+        <v>-0.07499127932355905</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1431,96 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.03079135039483783</v>
+        <v>0.02410031035583814</v>
       </c>
       <c r="C38">
-        <v>-0.02809635308454331</v>
+        <v>0.02505867859742476</v>
       </c>
       <c r="D38">
-        <v>0.005258310724609057</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02617661402782219</v>
+      </c>
+      <c r="E38">
+        <v>-0.04576530383435307</v>
+      </c>
+      <c r="F38">
+        <v>-0.06344350023934273</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.04556344382070387</v>
+        <v>0.03953879867757421</v>
       </c>
       <c r="C39">
-        <v>-0.07169035298302377</v>
+        <v>0.06882087757203793</v>
       </c>
       <c r="D39">
-        <v>-0.02096712808272258</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05299795356593595</v>
+      </c>
+      <c r="E39">
+        <v>-0.03288941507367156</v>
+      </c>
+      <c r="F39">
+        <v>-0.08677304872941373</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.01483028187664076</v>
+        <v>0.01532446599078843</v>
       </c>
       <c r="C40">
-        <v>-0.04248718970973236</v>
+        <v>0.04076891451809033</v>
       </c>
       <c r="D40">
-        <v>-0.03795085984701393</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03860893942070651</v>
+      </c>
+      <c r="E40">
+        <v>-0.08158837288988775</v>
+      </c>
+      <c r="F40">
+        <v>-0.06898027520184662</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.01713118890518928</v>
+        <v>0.01775920200069563</v>
       </c>
       <c r="C41">
-        <v>-0.008686542071479817</v>
+        <v>0.007110528181920121</v>
       </c>
       <c r="D41">
-        <v>0.005493436294296557</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01322933276470728</v>
+      </c>
+      <c r="E41">
+        <v>-0.04994787570016563</v>
+      </c>
+      <c r="F41">
+        <v>-0.06406707711376093</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.0361268107965105</v>
+        <v>0.02862027489414343</v>
       </c>
       <c r="C43">
-        <v>-0.02531956678656025</v>
+        <v>0.02175604526379227</v>
       </c>
       <c r="D43">
-        <v>-0.01603978187750918</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.03877366283309646</v>
+      </c>
+      <c r="E43">
+        <v>-0.0612275233308495</v>
+      </c>
+      <c r="F43">
+        <v>-0.07509906393962915</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.01689900293056226</v>
+        <v>0.01419957810817846</v>
       </c>
       <c r="C44">
-        <v>-0.05804903262384161</v>
+        <v>0.05170969709136353</v>
       </c>
       <c r="D44">
-        <v>-0.02134502649142806</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.04001961930010255</v>
+      </c>
+      <c r="E44">
+        <v>-0.07751130740533907</v>
+      </c>
+      <c r="F44">
+        <v>-0.07671988166732595</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1591,76 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.004442419369733742</v>
+        <v>0.007460355727386431</v>
       </c>
       <c r="C46">
-        <v>-0.02479353647711698</v>
+        <v>0.02625671778067382</v>
       </c>
       <c r="D46">
-        <v>0.02273876449040496</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.009300867604385851</v>
+      </c>
+      <c r="E46">
+        <v>-0.04619061880420286</v>
+      </c>
+      <c r="F46">
+        <v>-0.09966271555140907</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.08420516029505404</v>
+        <v>0.08693949120387919</v>
       </c>
       <c r="C47">
-        <v>-0.06478471843315933</v>
+        <v>0.07939643085218627</v>
       </c>
       <c r="D47">
-        <v>0.02704912252868121</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01913107036114849</v>
+      </c>
+      <c r="E47">
+        <v>-0.06372005182955667</v>
+      </c>
+      <c r="F47">
+        <v>-0.07388637922232458</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.01876117073565671</v>
+        <v>0.01570471887304718</v>
       </c>
       <c r="C48">
-        <v>-0.01330370860556288</v>
+        <v>0.01709088343525206</v>
       </c>
       <c r="D48">
-        <v>0.01522415490682644</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01446340532754471</v>
+      </c>
+      <c r="E48">
+        <v>-0.05740410135319812</v>
+      </c>
+      <c r="F48">
+        <v>-0.08973470129555529</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1671,56 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.08138303178518357</v>
+        <v>0.07067147823119038</v>
       </c>
       <c r="C50">
-        <v>-0.07118216016503245</v>
+        <v>0.07206041568294266</v>
       </c>
       <c r="D50">
-        <v>0.03009971714973094</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.006602957145139389</v>
+      </c>
+      <c r="E50">
+        <v>-0.06664947178408261</v>
+      </c>
+      <c r="F50">
+        <v>-0.05925374623899197</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.014960621498901</v>
+        <v>0.01065813026533609</v>
       </c>
       <c r="C51">
-        <v>-0.05030951899947336</v>
+        <v>0.03420515220908493</v>
       </c>
       <c r="D51">
-        <v>-0.02490098551000688</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.04891814165166489</v>
+      </c>
+      <c r="E51">
+        <v>-0.0370259350264692</v>
+      </c>
+      <c r="F51">
+        <v>-0.0776126740880957</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1731,196 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.0828283945939474</v>
+        <v>0.09365847403418086</v>
       </c>
       <c r="C53">
-        <v>-0.07174220559248143</v>
+        <v>0.08638500046496433</v>
       </c>
       <c r="D53">
-        <v>0.03792400813463379</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.04391195713713364</v>
+      </c>
+      <c r="E53">
+        <v>-0.05998623983456008</v>
+      </c>
+      <c r="F53">
+        <v>-0.08333703462469666</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.02963459881373662</v>
+        <v>0.02758732545972011</v>
       </c>
       <c r="C54">
-        <v>-0.02793802823922999</v>
+        <v>0.0267575652595905</v>
       </c>
       <c r="D54">
-        <v>0.002317724498832887</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02842140949793092</v>
+      </c>
+      <c r="E54">
+        <v>-0.04736889038901153</v>
+      </c>
+      <c r="F54">
+        <v>-0.09794998052750326</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.07644941458830105</v>
+        <v>0.0850617589208648</v>
       </c>
       <c r="C55">
-        <v>-0.05498566975766719</v>
+        <v>0.0697301157295912</v>
       </c>
       <c r="D55">
-        <v>0.0467137148503432</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.05020114214659027</v>
+      </c>
+      <c r="E55">
+        <v>-0.04707643078450814</v>
+      </c>
+      <c r="F55">
+        <v>-0.05912134518346718</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1467638209592602</v>
+        <v>0.1469130058663968</v>
       </c>
       <c r="C56">
-        <v>-0.09102033910991897</v>
+        <v>0.1044858208383601</v>
       </c>
       <c r="D56">
-        <v>0.0465386616016607</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05360503413997505</v>
+      </c>
+      <c r="E56">
+        <v>-0.05011872112242607</v>
+      </c>
+      <c r="F56">
+        <v>-0.0420063816256024</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
-        <v>0.0009126544119374746</v>
+        <v>0.0003440444062656879</v>
       </c>
       <c r="C57">
-        <v>-0.0007908088376648506</v>
+        <v>0.0005813037951810989</v>
       </c>
       <c r="D57">
-        <v>-0.01700825025640995</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.01236028833296839</v>
+      </c>
+      <c r="E57">
+        <v>-0.00930079130280995</v>
+      </c>
+      <c r="F57">
+        <v>-0.006239893674634224</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.05973798773051754</v>
+        <v>0.02853282100119934</v>
       </c>
       <c r="C58">
-        <v>-0.02768609787604825</v>
+        <v>0.03699877268408102</v>
       </c>
       <c r="D58">
-        <v>-0.7414396656068506</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.409568024190071</v>
+      </c>
+      <c r="E58">
+        <v>-0.6646734140958281</v>
+      </c>
+      <c r="F58">
+        <v>0.5422928805437724</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1303254959135485</v>
+        <v>0.1450226985848034</v>
       </c>
       <c r="C59">
-        <v>0.1989080727975325</v>
+        <v>-0.1859208230336941</v>
       </c>
       <c r="D59">
-        <v>-0.024718997366459</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.03059905475687657</v>
+      </c>
+      <c r="E59">
+        <v>-0.02837389461411481</v>
+      </c>
+      <c r="F59">
+        <v>-0.02097712843462744</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.3107929937846537</v>
+        <v>0.2829421757814644</v>
       </c>
       <c r="C60">
-        <v>-0.0849584673276296</v>
+        <v>0.09818630524099731</v>
       </c>
       <c r="D60">
-        <v>-0.1121653902574054</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2228601137470352</v>
+      </c>
+      <c r="E60">
+        <v>0.2652639390301432</v>
+      </c>
+      <c r="F60">
+        <v>0.09152772279365413</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.04212023428557553</v>
+        <v>0.04080292570285363</v>
       </c>
       <c r="C61">
-        <v>-0.0662899391213677</v>
+        <v>0.06306495859469965</v>
       </c>
       <c r="D61">
-        <v>-0.01603371108194254</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04461686644770032</v>
+      </c>
+      <c r="E61">
+        <v>-0.03705421170669044</v>
+      </c>
+      <c r="F61">
+        <v>-0.07701237525320836</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +1931,156 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.01570432490098515</v>
+        <v>0.01502604576804285</v>
       </c>
       <c r="C63">
-        <v>-0.03618771266393881</v>
+        <v>0.03264812408456672</v>
       </c>
       <c r="D63">
-        <v>0.006846641176660628</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02118863083849083</v>
+      </c>
+      <c r="E63">
+        <v>-0.04934690309387744</v>
+      </c>
+      <c r="F63">
+        <v>-0.07018109141138611</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.0468830981669109</v>
+        <v>0.05541498757044293</v>
       </c>
       <c r="C64">
-        <v>-0.04441142972661327</v>
+        <v>0.05508214802620834</v>
       </c>
       <c r="D64">
-        <v>-0.001038606050286903</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.005043531883858775</v>
+      </c>
+      <c r="E64">
+        <v>-0.03059422346745912</v>
+      </c>
+      <c r="F64">
+        <v>-0.08355270920360078</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.08940482664657913</v>
+        <v>0.06982419301441936</v>
       </c>
       <c r="C65">
-        <v>-0.03160650865407832</v>
+        <v>0.03312195139915285</v>
       </c>
       <c r="D65">
-        <v>-0.0536691264569617</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08751898914508641</v>
+      </c>
+      <c r="E65">
+        <v>-0.03807134314210742</v>
+      </c>
+      <c r="F65">
+        <v>-0.007736217238039135</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.06391026098149075</v>
+        <v>0.05222282897770575</v>
       </c>
       <c r="C66">
-        <v>-0.1031228391739893</v>
+        <v>0.09092797924258546</v>
       </c>
       <c r="D66">
-        <v>-0.04280753471037706</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.08025646524843291</v>
+      </c>
+      <c r="E66">
+        <v>-0.03955555391816128</v>
+      </c>
+      <c r="F66">
+        <v>-0.08846540893793656</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.05337485284748591</v>
+        <v>0.04607393476985165</v>
       </c>
       <c r="C67">
-        <v>-0.03191970435132036</v>
+        <v>0.03158427189912542</v>
       </c>
       <c r="D67">
-        <v>0.008573368541334829</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01324931209117796</v>
+      </c>
+      <c r="E67">
+        <v>-0.02574906951900043</v>
+      </c>
+      <c r="F67">
+        <v>-0.05228889862601364</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1159613399856374</v>
+        <v>0.1505579286766354</v>
       </c>
       <c r="C68">
-        <v>0.2871666029680705</v>
+        <v>-0.2506176363729626</v>
       </c>
       <c r="D68">
-        <v>0.003936030223288108</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01957923016161371</v>
+      </c>
+      <c r="E68">
+        <v>-0.04299060487467114</v>
+      </c>
+      <c r="F68">
+        <v>-0.01447235005342751</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.09077978726291044</v>
+        <v>0.08681168513459903</v>
       </c>
       <c r="C69">
-        <v>-0.06344548320330277</v>
+        <v>0.08583803996813819</v>
       </c>
       <c r="D69">
-        <v>0.03954702056372989</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01044518121805327</v>
+      </c>
+      <c r="E69">
+        <v>-0.04765045021105574</v>
+      </c>
+      <c r="F69">
+        <v>-0.09062108473909809</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2091,516 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.109467925831021</v>
+        <v>0.1429639633721049</v>
       </c>
       <c r="C71">
-        <v>0.2457123954861502</v>
+        <v>-0.2338228002384659</v>
       </c>
       <c r="D71">
-        <v>-0.02926509617860702</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01312365392274145</v>
+      </c>
+      <c r="E71">
+        <v>-0.0626766993474048</v>
+      </c>
+      <c r="F71">
+        <v>-0.05501790073610366</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.09008958027164296</v>
+        <v>0.09785780767091508</v>
       </c>
       <c r="C72">
-        <v>-0.05053423813281144</v>
+        <v>0.05664236189652763</v>
       </c>
       <c r="D72">
-        <v>-0.005163321887368644</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.02829556346938885</v>
+      </c>
+      <c r="E72">
+        <v>-0.01553243506845561</v>
+      </c>
+      <c r="F72">
+        <v>-0.07005914917526948</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.4192942298819033</v>
+        <v>0.3470645779567685</v>
       </c>
       <c r="C73">
-        <v>-0.06348835987679706</v>
+        <v>0.08036984989358294</v>
       </c>
       <c r="D73">
-        <v>-0.3060755852486754</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4701693456704064</v>
+      </c>
+      <c r="E73">
+        <v>0.4716933235411032</v>
+      </c>
+      <c r="F73">
+        <v>0.2484658407397069</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.1109139882150046</v>
+        <v>0.1108750589277357</v>
       </c>
       <c r="C74">
-        <v>-0.0986228126129312</v>
+        <v>0.09890329937879308</v>
       </c>
       <c r="D74">
-        <v>0.02387180405573577</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03291981240085994</v>
+      </c>
+      <c r="E74">
+        <v>-0.06426710360792909</v>
+      </c>
+      <c r="F74">
+        <v>-0.04814759038307019</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.2525594094633777</v>
+        <v>0.2567096182823475</v>
       </c>
       <c r="C75">
-        <v>-0.100303408864874</v>
+        <v>0.1318973609540025</v>
       </c>
       <c r="D75">
-        <v>0.08547312365177914</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1322747510861475</v>
+      </c>
+      <c r="E75">
+        <v>-0.06877614954551367</v>
+      </c>
+      <c r="F75">
+        <v>-0.008932984954010896</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.114228597136502</v>
+        <v>0.1280272971695566</v>
       </c>
       <c r="C76">
-        <v>-0.08694721229952636</v>
+        <v>0.09939444965599399</v>
       </c>
       <c r="D76">
-        <v>0.04298446926340022</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.06218315310957819</v>
+      </c>
+      <c r="E76">
+        <v>-0.07747494179087047</v>
+      </c>
+      <c r="F76">
+        <v>-0.06561733030908547</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.07740129015437598</v>
+        <v>0.06263746247351148</v>
       </c>
       <c r="C77">
-        <v>-0.05960811095195456</v>
+        <v>0.07405959090613032</v>
       </c>
       <c r="D77">
-        <v>-0.06096989383197301</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.06279387842060934</v>
+      </c>
+      <c r="E77">
+        <v>-0.09112436943581874</v>
+      </c>
+      <c r="F77">
+        <v>-0.1079273861775963</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.04869089380884566</v>
+        <v>0.04323140484071436</v>
       </c>
       <c r="C78">
-        <v>-0.05033694011047413</v>
+        <v>0.06153325921048926</v>
       </c>
       <c r="D78">
-        <v>-0.02197030055629984</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.06730885925015789</v>
+      </c>
+      <c r="E78">
+        <v>-0.04245210575828885</v>
+      </c>
+      <c r="F78">
+        <v>-0.09021522696556525</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02571652344751995</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03914041933145102</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.0632146915008987</v>
+      </c>
+      <c r="E79">
+        <v>-0.05488107812564764</v>
+      </c>
+      <c r="F79">
+        <v>-0.03389190668747682</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.04643823296801152</v>
+        <v>0.03461435189575393</v>
       </c>
       <c r="C80">
-        <v>-0.05273236055463407</v>
+        <v>0.05482767793116553</v>
       </c>
       <c r="D80">
-        <v>-0.03125829046866412</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04347840374654352</v>
+      </c>
+      <c r="E80">
+        <v>-0.01579656460348165</v>
+      </c>
+      <c r="F80">
+        <v>-0.03448620376015899</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1428682107266216</v>
+        <v>0.1404327832547612</v>
       </c>
       <c r="C81">
-        <v>-0.06934064862684355</v>
+        <v>0.09408685316093232</v>
       </c>
       <c r="D81">
-        <v>0.06180446176129004</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.1030598584792377</v>
+      </c>
+      <c r="E81">
+        <v>-0.08356460555848044</v>
+      </c>
+      <c r="F81">
+        <v>-0.009241551619351958</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1602443758163639</v>
+        <v>0.2016108471474419</v>
       </c>
       <c r="C82">
-        <v>-0.06150472800742462</v>
+        <v>0.138248255655922</v>
       </c>
       <c r="D82">
-        <v>0.1563150825465431</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2391965398979939</v>
+      </c>
+      <c r="E82">
+        <v>0.001473687507963395</v>
+      </c>
+      <c r="F82">
+        <v>-0.09286986610869477</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.03825894148038097</v>
+        <v>0.02797580172970951</v>
       </c>
       <c r="C83">
-        <v>-0.02493293084409728</v>
+        <v>0.04240654226265383</v>
       </c>
       <c r="D83">
-        <v>-0.03373509481024913</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03399013049616968</v>
+      </c>
+      <c r="E83">
+        <v>-0.02071440831996576</v>
+      </c>
+      <c r="F83">
+        <v>-0.04190275925306496</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>6.886538944997367e-05</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.000115590282385732</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>4.27414413440132e-05</v>
+      </c>
+      <c r="E84">
+        <v>-0.0002308527292407722</v>
+      </c>
+      <c r="F84">
+        <v>0.0001729799314942001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.2215437665139948</v>
+        <v>0.2039458557681571</v>
       </c>
       <c r="C85">
-        <v>-0.09683907844192002</v>
+        <v>0.1177446196431895</v>
       </c>
       <c r="D85">
-        <v>0.1147663027447367</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.09949696047316121</v>
+      </c>
+      <c r="E85">
+        <v>0.00175943993812212</v>
+      </c>
+      <c r="F85">
+        <v>0.01513160023853685</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.009242129208699389</v>
+        <v>0.0109922600980138</v>
       </c>
       <c r="C86">
-        <v>-0.03911705794719917</v>
+        <v>0.03194455808548653</v>
       </c>
       <c r="D86">
-        <v>-0.04716370363432391</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.06481408172918797</v>
+      </c>
+      <c r="E86">
+        <v>-0.06581519236651552</v>
+      </c>
+      <c r="F86">
+        <v>-0.1249208576599398</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.02220039388986696</v>
+        <v>0.02178850528874347</v>
       </c>
       <c r="C87">
-        <v>-0.02260060291539455</v>
+        <v>0.02258168068780365</v>
       </c>
       <c r="D87">
-        <v>-0.09747379401219879</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.08882658410704676</v>
+      </c>
+      <c r="E87">
+        <v>-0.1095439609651479</v>
+      </c>
+      <c r="F87">
+        <v>-0.07430004175885843</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.106197652936</v>
+        <v>0.09177425076306182</v>
       </c>
       <c r="C88">
-        <v>-0.06911313091566344</v>
+        <v>0.0621779958060063</v>
       </c>
       <c r="D88">
-        <v>0.03314775231429854</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.007447211200109491</v>
+      </c>
+      <c r="E88">
+        <v>-0.04146500559935781</v>
+      </c>
+      <c r="F88">
+        <v>-0.07207476741437678</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1769284318822704</v>
+        <v>0.2213701416194723</v>
       </c>
       <c r="C89">
-        <v>0.3832980745916303</v>
+        <v>-0.3784964892325707</v>
       </c>
       <c r="D89">
-        <v>0.009504154690914273</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.004852693916968957</v>
+      </c>
+      <c r="E89">
+        <v>-0.06258806490720632</v>
+      </c>
+      <c r="F89">
+        <v>-0.07564818033044562</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1709794470360529</v>
+        <v>0.2008582932300246</v>
       </c>
       <c r="C90">
-        <v>0.3441721436010385</v>
+        <v>-0.3143536271800442</v>
       </c>
       <c r="D90">
-        <v>0.01741842875311001</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01400453595563084</v>
+      </c>
+      <c r="E90">
+        <v>-0.07343583223854518</v>
+      </c>
+      <c r="F90">
+        <v>-0.04138680693218161</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1921657748619013</v>
+        <v>0.186098317064831</v>
       </c>
       <c r="C91">
-        <v>-0.118413668383061</v>
+        <v>0.1402249838618655</v>
       </c>
       <c r="D91">
-        <v>0.08387448773287698</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1118905978367253</v>
+      </c>
+      <c r="E91">
+        <v>-0.06069465546652642</v>
+      </c>
+      <c r="F91">
+        <v>-0.03247236904215967</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1619441994756841</v>
+        <v>0.1828977980636977</v>
       </c>
       <c r="C92">
-        <v>0.2897562330833537</v>
+        <v>-0.2843046818715713</v>
       </c>
       <c r="D92">
-        <v>0.006769707860893533</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.007487135207176161</v>
+      </c>
+      <c r="E92">
+        <v>-0.06984420647899238</v>
+      </c>
+      <c r="F92">
+        <v>-0.08119351415431129</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1945841822168631</v>
+        <v>0.2250922340511609</v>
       </c>
       <c r="C93">
-        <v>0.3443994661973608</v>
+        <v>-0.3186715568458333</v>
       </c>
       <c r="D93">
-        <v>0.01389886912129477</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.003705243535601952</v>
+      </c>
+      <c r="E93">
+        <v>-0.0500398469178104</v>
+      </c>
+      <c r="F93">
+        <v>-0.04046792288733916</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.3391995588066703</v>
+        <v>0.342134686830353</v>
       </c>
       <c r="C94">
-        <v>-0.134737129569507</v>
+        <v>0.1816903265118454</v>
       </c>
       <c r="D94">
-        <v>0.4277407058420723</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4941853794291617</v>
+      </c>
+      <c r="E94">
+        <v>-0.04430604550938171</v>
+      </c>
+      <c r="F94">
+        <v>0.443340891156906</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1116423906567952</v>
+        <v>0.0855493395155905</v>
       </c>
       <c r="C95">
-        <v>-0.08233798024531827</v>
+        <v>0.06894564575211538</v>
       </c>
       <c r="D95">
-        <v>-0.1079533868292175</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1700580182965057</v>
+      </c>
+      <c r="E95">
+        <v>0.1058838126343518</v>
+      </c>
+      <c r="F95">
+        <v>-0.2260971799419226</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2611,16 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2631,36 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.1960190903102838</v>
+        <v>0.1879850110250699</v>
       </c>
       <c r="C98">
-        <v>-0.02403549962782099</v>
+        <v>0.04449909640309975</v>
       </c>
       <c r="D98">
-        <v>-0.1207212294266992</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1876168359784705</v>
+      </c>
+      <c r="E98">
+        <v>0.1466115149131846</v>
+      </c>
+      <c r="F98">
+        <v>0.03393706775675196</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2671,16 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2691,56 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.008511085027721823</v>
+        <v>0.005699075741666558</v>
       </c>
       <c r="C101">
-        <v>-0.03119834852429378</v>
+        <v>0.02877744309602775</v>
       </c>
       <c r="D101">
-        <v>0.02045443894279148</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.0176817336337672</v>
+      </c>
+      <c r="E101">
+        <v>-0.03792388712197188</v>
+      </c>
+      <c r="F101">
+        <v>-0.08730850322525052</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
-        <v>0.122206478286087</v>
+        <v>0.1241158522008913</v>
       </c>
       <c r="C102">
-        <v>-0.07053895531164475</v>
+        <v>0.09920663489831109</v>
       </c>
       <c r="D102">
-        <v>0.02761194916551744</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.04818975639061465</v>
+      </c>
+      <c r="E102">
+        <v>0.0068725959254098</v>
+      </c>
+      <c r="F102">
+        <v>-0.04435672127194887</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
